--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1035941.522692766</v>
+        <v>1056341.928458404</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453904</v>
+        <v>5562152.400446149</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.15266807</v>
+        <v>4028287.523710871</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7549598.616494583</v>
+        <v>7982190.02187952</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>252.6871036901638</v>
       </c>
       <c r="X2" t="n">
-        <v>202.1436407762275</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -905,13 +907,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>291.8161411102122</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>176.9978693139707</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1117,7 +1119,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>170.3245356503229</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>302.4710166737249</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>98.9457413571089</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9202602248441235</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1531,22 +1533,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>153.025139010513</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1610,16 +1612,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>178.8846941420544</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>34.97670245206623</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>156.5147622687104</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1898,10 +1900,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>243.8604378205287</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2147,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.8613317032455</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>101.8416773654826</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -2287,19 +2289,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>158.3449400448986</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>150.7285371793298</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>153.138492427579</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2558,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.5952110672386</v>
+        <v>27.77250173713512</v>
       </c>
     </row>
     <row r="29">
@@ -2798,10 +2800,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>85.25432609134864</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3013,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>208.9394986490611</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.88126300749902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3424,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>87.08964901531029</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3509,16 +3511,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F38" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>118.7770891036593</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>188.8134504164549</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3740,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>110.5566947623674</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>4.702586979977263</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3904,13 +3906,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>81.14997012454123</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>262.5811302569444</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3986,13 +3988,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>125.5751685665802</v>
       </c>
       <c r="H44" t="n">
-        <v>186.9591857920967</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.8962612405997401</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976.0940070635064</v>
+        <v>2218.755112140477</v>
       </c>
       <c r="C2" t="n">
-        <v>565.9694163767765</v>
+        <v>1808.630521453747</v>
       </c>
       <c r="D2" t="n">
-        <v>565.9694163767765</v>
+        <v>1404.166591546807</v>
       </c>
       <c r="E2" t="n">
-        <v>565.9694163767765</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="F2" t="n">
-        <v>144.9390043304641</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9390043304641</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>850.932214224331</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>1563.523614036569</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M2" t="n">
-        <v>2288.540729424842</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N2" t="n">
-        <v>2929.36208237686</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O2" t="n">
-        <v>2929.36208237686</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P2" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>2571.87452311782</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U2" t="n">
-        <v>2314.81403137733</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.976476713811</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W2" t="n">
-        <v>1581.216175848979</v>
+        <v>3430.556362687924</v>
       </c>
       <c r="X2" t="n">
-        <v>1377.030680115416</v>
+        <v>3029.912964856876</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.0940070635064</v>
+        <v>2628.976291804966</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="K3" t="n">
-        <v>58.5872416475372</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="L3" t="n">
-        <v>58.5872416475372</v>
+        <v>2493.207694996278</v>
       </c>
       <c r="M3" t="n">
-        <v>489.5689897796294</v>
+        <v>2774.245504192344</v>
       </c>
       <c r="N3" t="n">
-        <v>489.5689897796294</v>
+        <v>2774.245504192344</v>
       </c>
       <c r="O3" t="n">
-        <v>1193.526080325524</v>
+        <v>2774.245504192344</v>
       </c>
       <c r="P3" t="n">
-        <v>1755.231972814054</v>
+        <v>3335.951396680874</v>
       </c>
       <c r="Q3" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1147.921091948674</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C4" t="n">
-        <v>976.8277195103904</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D4" t="n">
-        <v>817.3330748333003</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E4" t="n">
-        <v>656.4222597016197</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F4" t="n">
-        <v>491.791133812211</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G4" t="n">
-        <v>324.5407427377544</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X4" t="n">
-        <v>1560.356496953953</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y4" t="n">
-        <v>1335.620798342718</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.279756623514</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C5" t="n">
-        <v>1172.155165936784</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D5" t="n">
-        <v>767.6912360298447</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E5" t="n">
-        <v>353.3510205467414</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F5" t="n">
-        <v>353.3510205467414</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G5" t="n">
-        <v>353.3510205467414</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>312.7727131152915</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L5" t="n">
-        <v>1025.36411292753</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M5" t="n">
-        <v>1198.996458086625</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N5" t="n">
-        <v>1924.013573474898</v>
+        <v>2680.447352462895</v>
       </c>
       <c r="O5" t="n">
-        <v>2567.644429892003</v>
+        <v>3324.07820888</v>
       </c>
       <c r="P5" t="n">
-        <v>2567.644429892003</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>2794.081007170961</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>2794.081007170961</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V5" t="n">
-        <v>2794.081007170961</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W5" t="n">
-        <v>2794.081007170961</v>
+        <v>2542.624529122039</v>
       </c>
       <c r="X5" t="n">
-        <v>2393.437609339914</v>
+        <v>2542.624529122039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.500936288004</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M6" t="n">
-        <v>783.60435703581</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N6" t="n">
-        <v>1508.621472424083</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O6" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P6" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q6" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T7" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U7" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V7" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W7" t="n">
-        <v>241.0193557949199</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2023.719241343133</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="C8" t="n">
-        <v>1613.594650656403</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D8" t="n">
-        <v>1613.594650656403</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E8" t="n">
-        <v>1199.254435173299</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F8" t="n">
-        <v>778.224023126987</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G8" t="n">
-        <v>369.4957390198192</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>1191.504390522088</v>
       </c>
       <c r="M8" t="n">
-        <v>1198.996458086625</v>
+        <v>1967.822981513842</v>
       </c>
       <c r="N8" t="n">
-        <v>1924.013573474898</v>
+        <v>2721.00399815246</v>
       </c>
       <c r="O8" t="n">
-        <v>2567.644429892003</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="P8" t="n">
-        <v>2567.644429892003</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U8" t="n">
-        <v>2757.317096871483</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V8" t="n">
-        <v>2407.479542207964</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.719241343133</v>
+        <v>3244.988506690549</v>
       </c>
       <c r="X8" t="n">
-        <v>2023.719241343133</v>
+        <v>2844.345108859502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.719241343133</v>
+        <v>2443.408435807592</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>719.6754135668255</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>719.6754135668255</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N9" t="n">
-        <v>719.6754135668255</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O9" t="n">
-        <v>1423.63250411272</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P9" t="n">
-        <v>1725.672453451424</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2075.516918135407</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1076.772912800399</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C10" t="n">
-        <v>976.8277195103904</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D10" t="n">
-        <v>817.3330748333003</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E10" t="n">
-        <v>656.4222597016197</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F10" t="n">
-        <v>491.791133812211</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G10" t="n">
-        <v>324.5407427377544</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U10" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V10" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W10" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X10" t="n">
-        <v>1076.772912800399</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y10" t="n">
-        <v>1076.772912800399</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2117.27467387779</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C11" t="n">
-        <v>1707.15008319106</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.686153284121</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E11" t="n">
-        <v>888.3459378010175</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F11" t="n">
-        <v>467.315525754705</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>850.932214224331</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L11" t="n">
-        <v>850.932214224331</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M11" t="n">
-        <v>850.932214224331</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N11" t="n">
-        <v>1435.413521245312</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O11" t="n">
-        <v>2079.044377662417</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P11" t="n">
-        <v>2608.201075581568</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V11" t="n">
-        <v>2928.432526594189</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W11" t="n">
-        <v>2928.432526594189</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X11" t="n">
-        <v>2928.432526594189</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y11" t="n">
-        <v>2527.495853542279</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>719.6754135668255</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M12" t="n">
-        <v>1401.119346952143</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>384.2514615711874</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C13" t="n">
-        <v>213.1580891329039</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D13" t="n">
-        <v>213.1580891329039</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E13" t="n">
-        <v>213.1580891329039</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F13" t="n">
-        <v>213.1580891329039</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V13" t="n">
-        <v>1314.100393207909</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W13" t="n">
-        <v>1035.030728716784</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X13" t="n">
-        <v>796.6868665764671</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y13" t="n">
-        <v>571.9511679652318</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1298.470528487747</v>
+        <v>1483.336263548569</v>
       </c>
       <c r="C14" t="n">
-        <v>888.3459378010175</v>
+        <v>1073.211672861839</v>
       </c>
       <c r="D14" t="n">
-        <v>888.3459378010175</v>
+        <v>668.7477429548999</v>
       </c>
       <c r="E14" t="n">
-        <v>888.3459378010175</v>
+        <v>254.4075274717966</v>
       </c>
       <c r="F14" t="n">
-        <v>467.315525754705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K14" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L14" t="n">
-        <v>1309.338142568815</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M14" t="n">
-        <v>1309.338142568815</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.574528040604</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O14" t="n">
-        <v>2400.205384457709</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V14" t="n">
-        <v>2894.032079900026</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W14" t="n">
-        <v>2510.271779035194</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X14" t="n">
-        <v>2109.628381204147</v>
+        <v>2294.494116264969</v>
       </c>
       <c r="Y14" t="n">
-        <v>1708.691708152237</v>
+        <v>1893.557443213059</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>1175.481669832124</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.481669832124</v>
+        <v>916.6929979218638</v>
       </c>
       <c r="N15" t="n">
-        <v>1175.481669832124</v>
+        <v>1790.351090033482</v>
       </c>
       <c r="O15" t="n">
-        <v>1879.438760378019</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>989.1589651430177</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>818.0655927047342</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>658.5709480276441</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>497.6601328959636</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>333.0290070065549</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1401.594370148297</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1401.594370148297</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>1401.594370148297</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>1401.594370148297</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W16" t="n">
-        <v>1401.594370148297</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X16" t="n">
-        <v>1401.594370148297</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y16" t="n">
-        <v>1176.858671537062</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2139.066799289355</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
         <v>2139.066799289355</v>
@@ -5513,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5546,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C18" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D18" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E18" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F18" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G18" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H18" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I18" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>3071.501944945938</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>3732.590116865226</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>4100.47899204261</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>4100.47899204261</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>4100.47899204261</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R18" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S18" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T18" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U18" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V18" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W18" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X18" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y18" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1392.076815447654</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1109.278667993779</v>
+        <v>865.1056942772943</v>
       </c>
       <c r="V19" t="n">
-        <v>835.3929229333004</v>
+        <v>865.1056942772943</v>
       </c>
       <c r="W19" t="n">
-        <v>556.3232584421747</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="X19" t="n">
-        <v>317.9793963018581</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>586.0360297861687</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
-        <v>4090.140845814479</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W20" t="n">
-        <v>3706.380544949648</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X20" t="n">
-        <v>3305.7371471186</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>212.9817385874103</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>874.0699105066985</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>462.0675799580952</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C22" t="n">
-        <v>462.0675799580952</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D22" t="n">
-        <v>462.0675799580952</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E22" t="n">
-        <v>462.0675799580952</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F22" t="n">
-        <v>462.0675799580952</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S22" t="n">
-        <v>1537.369875986873</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="T22" t="n">
-        <v>1297.821136963575</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="U22" t="n">
-        <v>1015.022989509699</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="V22" t="n">
-        <v>741.1372444492208</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="W22" t="n">
-        <v>462.0675799580952</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="X22" t="n">
-        <v>462.0675799580952</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="Y22" t="n">
-        <v>462.0675799580952</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6020,19 +6022,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2945.549711724955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>3788.526792419522</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>4662.18488453114</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.4940887650794</v>
+        <v>3886.715034984088</v>
       </c>
       <c r="C25" t="n">
-        <v>260.4940887650794</v>
+        <v>3715.621662545804</v>
       </c>
       <c r="D25" t="n">
-        <v>260.4940887650794</v>
+        <v>3715.621662545804</v>
       </c>
       <c r="E25" t="n">
-        <v>260.4940887650794</v>
+        <v>3715.621662545804</v>
       </c>
       <c r="F25" t="n">
-        <v>260.4940887650794</v>
+        <v>3550.990536656395</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1467.95724842503</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="U25" t="n">
-        <v>1185.159100971154</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="V25" t="n">
-        <v>911.2733559106757</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="W25" t="n">
-        <v>911.2733559106757</v>
+        <v>4111.450733595323</v>
       </c>
       <c r="X25" t="n">
-        <v>672.929493770359</v>
+        <v>4111.450733595323</v>
       </c>
       <c r="Y25" t="n">
-        <v>448.1937951591237</v>
+        <v>3886.715034984088</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C27" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D27" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E27" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H27" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>3458.672769375206</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>4332.330861486824</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>4662.18488453114</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P27" t="n">
-        <v>4662.18488453114</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="Q27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S27" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T27" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U27" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V27" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W27" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X27" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y27" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.295707834299</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V28" t="n">
-        <v>826.4099627738212</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W28" t="n">
-        <v>547.3402982826956</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X28" t="n">
-        <v>308.996436142379</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>3320.485694304334</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
         <v>899.2322418529996</v>
@@ -6461,7 +6463,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6546,10 +6548,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N30" t="n">
         <v>1435.775802995229</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1536.527113411121</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1296.978374387823</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>1296.978374387823</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V31" t="n">
-        <v>1023.092629327345</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W31" t="n">
-        <v>744.0229648362191</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X31" t="n">
-        <v>505.6791026959025</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="Y31" t="n">
-        <v>280.9434040846672</v>
+        <v>275.6758118380055</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>916.2303367455215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1789.888428857139</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>3468.510486237982</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>3468.510486237982</v>
       </c>
       <c r="X34" t="n">
-        <v>1384.298732171156</v>
+        <v>3468.510486237982</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>3468.510486237982</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7025,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3890.115650641462</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C37" t="n">
-        <v>3890.115650641462</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D37" t="n">
-        <v>3730.621005964372</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4302.551055646742</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>4302.551055646742</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>4302.551055646742</v>
+        <v>1514.591461574399</v>
       </c>
       <c r="W37" t="n">
-        <v>4302.551055646742</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X37" t="n">
-        <v>4302.551055646742</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y37" t="n">
-        <v>4077.815357035507</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7159,13 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7175,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>3458.672769375206</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>4332.330861486824</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>971.9663885568499</v>
+        <v>541.5939311562606</v>
       </c>
       <c r="C40" t="n">
-        <v>971.9663885568499</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H40" t="n">
         <v>209.5897435862967</v>
@@ -7357,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W40" t="n">
-        <v>1196.702087168085</v>
+        <v>1192.373198301857</v>
       </c>
       <c r="X40" t="n">
-        <v>1196.702087168085</v>
+        <v>954.0293361615403</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.9663885568499</v>
+        <v>729.293637550305</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1712.810743970851</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C41" t="n">
-        <v>1302.686153284121</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="D41" t="n">
-        <v>1302.686153284121</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E41" t="n">
-        <v>888.3459378010175</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M41" t="n">
-        <v>2034.355257957088</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N41" t="n">
-        <v>2285.731225959755</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O41" t="n">
-        <v>2929.36208237686</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>2929.36208237686</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W41" t="n">
-        <v>2924.611994518297</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X41" t="n">
-        <v>2523.96859668725</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y41" t="n">
-        <v>2123.03192363534</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>2108.180678707345</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.621472424083</v>
+        <v>2981.838770818963</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>389.1752587629107</v>
+        <v>2894.496589672936</v>
       </c>
       <c r="C43" t="n">
-        <v>218.0818863246272</v>
+        <v>2723.403217234653</v>
       </c>
       <c r="D43" t="n">
-        <v>58.5872416475372</v>
+        <v>2563.908572557563</v>
       </c>
       <c r="E43" t="n">
-        <v>58.5872416475372</v>
+        <v>2402.997757425882</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>2238.366631536474</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U43" t="n">
-        <v>1305.187990814512</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V43" t="n">
-        <v>1305.187990814512</v>
+        <v>3411.910116304379</v>
       </c>
       <c r="W43" t="n">
-        <v>1039.954525908507</v>
+        <v>3132.840451813253</v>
       </c>
       <c r="X43" t="n">
-        <v>801.6106637681904</v>
+        <v>2894.496589672936</v>
       </c>
       <c r="Y43" t="n">
-        <v>576.8749651569551</v>
+        <v>2894.496589672936</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1895.99774560732</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C44" t="n">
-        <v>1895.99774560732</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D44" t="n">
-        <v>1491.53381570038</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E44" t="n">
-        <v>1077.193600217277</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="F44" t="n">
-        <v>656.1631881709643</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="G44" t="n">
-        <v>247.4349040637965</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>596.7467427565767</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L44" t="n">
-        <v>1309.338142568815</v>
+        <v>786.3073170395352</v>
       </c>
       <c r="M44" t="n">
-        <v>1394.856875555747</v>
+        <v>1562.625908031289</v>
       </c>
       <c r="N44" t="n">
-        <v>1394.856875555747</v>
+        <v>2315.806924669907</v>
       </c>
       <c r="O44" t="n">
-        <v>2038.487731972852</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P44" t="n">
-        <v>2567.644429892003</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2707.155598323719</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2707.155598323719</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>2707.155598323719</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W44" t="n">
-        <v>2707.155598323719</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X44" t="n">
-        <v>2707.155598323719</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y44" t="n">
-        <v>2306.218925271809</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L45" t="n">
-        <v>1175.481669832124</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M45" t="n">
-        <v>1175.481669832124</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N45" t="n">
-        <v>1193.526080325524</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="O45" t="n">
-        <v>1193.526080325524</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P45" t="n">
-        <v>1755.231972814054</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>881.9675908584566</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>710.8742184201731</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>551.379573743083</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>390.4687586114026</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>225.8376327219938</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1372.549034984329</v>
       </c>
       <c r="U46" t="n">
-        <v>1587.986138268387</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V46" t="n">
-        <v>1587.986138268387</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W46" t="n">
-        <v>1308.916473777262</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X46" t="n">
-        <v>1070.572611636945</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y46" t="n">
-        <v>1069.667297252501</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7987,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>740.2065866677486</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>101.2005034130957</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M3" t="n">
-        <v>492.8993828617429</v>
+        <v>341.4408586839378</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>621.6393243851574</v>
@@ -8216,16 +8218,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>268.6764316884554</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>421.6764037412781</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
@@ -8301,13 +8303,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>789.9048043326325</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>630.373141334671</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8316,7 +8318,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>424.2162068689026</v>
       </c>
       <c r="M8" t="n">
-        <v>525.4294331710355</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8474,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,25 +8537,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>359.3504929206866</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,16 +8692,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>433.3099474647489</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>683.2974493636705</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8772,13 +8774,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>745.891489178132</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8933,13 +8935,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>544.6662154755978</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>142.166812190434</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9006,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>429.1692081600173</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9480,22 +9482,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>176.7732988419765</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9720,19 +9722,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>389.3004056737939</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>701.4825071992079</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9966,13 +9968,13 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>389.8785003677836</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10194,13 +10196,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>557.7944283533855</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
@@ -10425,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>233.6930970989899</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10671,19 +10673,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>915.4839494260226</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10823,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10835,7 +10837,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10914,7 +10916,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629454</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11060,25 +11062,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>690.062948947329</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>346.8274099512328</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11145,13 +11147,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11297,19 +11299,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>179.6727830297039</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>577.1439031923908</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11376,19 +11378,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>71.42007065981008</v>
+        <v>458.6703921507827</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11397,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>127.2355941660193</v>
       </c>
       <c r="X2" t="n">
-        <v>194.4933230765095</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22793,13 +22795,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15.983271288347</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22835,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>202.9248285422124</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300461</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>84.16535117276212</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>77.45168118245817</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>70.43669735679175</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -23242,10 +23244,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23315,13 +23317,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>345.41891889204</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>12.55274815319899</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>237.9354137837949</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23549,10 +23551,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>311.3624766648179</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>9.063124895001636</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23786,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>36.10972815880834</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>54.06597461814533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>63.73620979822944</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>19.10615505383106</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>96.14494677818635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24373,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>14.84934998438223</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>84.01475920548592</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.893130557884348</v>
+        <v>194.7158398879878</v>
       </c>
     </row>
     <row r="29">
@@ -24686,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24853,10 +24855,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>82.68617307340614</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>99.27352434754019</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>67.33946919715328</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.6070786176239</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>150.0636026177546</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25397,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F38" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>39.1226091266598</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>87.46551742975947</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>295.4666500174951</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25685,10 +25687,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>375.2201108762059</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>84.42791703917078</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25840,19 +25842,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>13.69783758926997</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>279.0658326995159</v>
       </c>
       <c r="H44" t="n">
-        <v>120.8402266064625</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25916,19 +25918,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26074,13 +26076,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>221.5920803845232</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>567980.6687723319</v>
+        <v>642463.373167785</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>567980.6687723321</v>
+        <v>642463.3731677851</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>567980.6687723319</v>
+        <v>642463.3731677851</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>567980.6687723323</v>
+        <v>642463.3731677851</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>567980.6687723319</v>
+        <v>642463.373167785</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738604.102214489</v>
+        <v>738604.1022144889</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738604.102214489</v>
+        <v>738604.1022144888</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738604.102214489</v>
+        <v>738604.1022144889</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738604.1022144891</v>
+        <v>738604.102214489</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738604.1022144889</v>
+        <v>738604.102214489</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738604.1022144888</v>
+        <v>738604.1022144891</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738604.1022144886</v>
+        <v>738604.102214489</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>567980.6687723321</v>
+        <v>642463.373167785</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>567980.6687723319</v>
+        <v>642463.3731677851</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211600.6413073396</v>
+        <v>239349.0998076063</v>
       </c>
       <c r="C2" t="n">
-        <v>211600.6413073396</v>
+        <v>239349.0998076063</v>
       </c>
       <c r="D2" t="n">
-        <v>211600.6413073397</v>
+        <v>239349.0998076064</v>
       </c>
       <c r="E2" t="n">
-        <v>211600.6413073394</v>
+        <v>239349.0998076064</v>
       </c>
       <c r="F2" t="n">
-        <v>211600.6413073396</v>
+        <v>239349.0998076064</v>
       </c>
       <c r="G2" t="n">
         <v>275166.2341583392</v>
       </c>
       <c r="H2" t="n">
+        <v>275166.2341583391</v>
+      </c>
+      <c r="I2" t="n">
         <v>275166.2341583392</v>
       </c>
-      <c r="I2" t="n">
-        <v>275166.2341583391</v>
-      </c>
       <c r="J2" t="n">
-        <v>275166.2341583393</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="K2" t="n">
         <v>275166.2341583392</v>
@@ -26344,16 +26346,16 @@
         <v>275166.2341583392</v>
       </c>
       <c r="M2" t="n">
-        <v>275166.234158339</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="N2" t="n">
         <v>275166.2341583392</v>
       </c>
       <c r="O2" t="n">
-        <v>211600.6413073396</v>
+        <v>239349.0998076064</v>
       </c>
       <c r="P2" t="n">
-        <v>211600.6413073395</v>
+        <v>239349.0998076064</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="C4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="D4" t="n">
-        <v>533.3187768863875</v>
+        <v>622.7246651156233</v>
       </c>
       <c r="E4" t="n">
-        <v>533.3187768863875</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="F4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446466</v>
@@ -26439,7 +26441,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
         <v>738.1279301446466</v>
@@ -26448,16 +26450,16 @@
         <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="N4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="P4" t="n">
-        <v>533.3187768863872</v>
+        <v>622.7246651156232</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112510.7334047702</v>
+        <v>-159724.0635622989</v>
       </c>
       <c r="C6" t="n">
-        <v>132913.418878325</v>
+        <v>149074.6780497448</v>
       </c>
       <c r="D6" t="n">
-        <v>132913.418878325</v>
+        <v>149074.678049745</v>
       </c>
       <c r="E6" t="n">
-        <v>166541.0188783248</v>
+        <v>182702.278049745</v>
       </c>
       <c r="F6" t="n">
-        <v>166541.0188783249</v>
+        <v>182702.2780497449</v>
       </c>
       <c r="G6" t="n">
-        <v>84827.71155120731</v>
+        <v>136659.4996296886</v>
       </c>
       <c r="H6" t="n">
+        <v>203562.8959833211</v>
+      </c>
+      <c r="I6" t="n">
         <v>203562.8959833212</v>
       </c>
-      <c r="I6" t="n">
-        <v>203562.8959833211</v>
-      </c>
       <c r="J6" t="n">
-        <v>11950.39281296849</v>
+        <v>-37528.69710441545</v>
       </c>
       <c r="K6" t="n">
         <v>203562.8959833212</v>
@@ -26552,16 +26554,16 @@
         <v>203562.8959833212</v>
       </c>
       <c r="M6" t="n">
-        <v>203562.8959833211</v>
+        <v>203562.8959833212</v>
       </c>
       <c r="N6" t="n">
         <v>203562.8959833212</v>
       </c>
       <c r="O6" t="n">
-        <v>166541.0188783249</v>
+        <v>182702.278049745</v>
       </c>
       <c r="P6" t="n">
-        <v>166541.0188783249</v>
+        <v>182702.2780497449</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34705,22 +34707,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>647.2942959111293</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.010727787312575</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M3" t="n">
-        <v>435.3350991233254</v>
+        <v>283.8765749455204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>567.3796893823536</v>
@@ -34936,16 +34938,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>175.3862072314099</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>328.7641129846588</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
@@ -35021,13 +35023,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>732.340520594215</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>572.621662334671</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>328.7308088060578</v>
       </c>
       <c r="M8" t="n">
-        <v>432.13920871399</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35194,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>305.0908579178828</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>337.8245494019041</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>590.3851586070512</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>688.3272054397146</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35653,13 +35655,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>451.7539247189785</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>48.97703656465086</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>371.6049244215998</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>120.9475160573611</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>648.289113805458</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36686,13 +36688,13 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>504.6010349596355</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>176.1288133605725</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>862.2905560322727</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37555,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37634,7 +37636,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629454</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>594.5775508844841</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>253.9151191946135</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>86.3825585726584</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>483.9541275666077</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>18.22667726606008</v>
+        <v>405.4769987570327</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38117,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1056341.928458404</v>
+        <v>1053833.576732492</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446149</v>
+        <v>5562152.40044615</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4028287.523710871</v>
+        <v>4028287.523710873</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7982190.02187952</v>
+        <v>7982190.021879523</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -676,7 +676,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>144.8594861600031</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>252.6871036901638</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -822,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>59.78186949969495</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -901,7 +901,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -910,13 +910,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>120.0102544229188</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>176.9978693139707</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>5.197350498695844</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1113,16 +1113,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>41.46926702424907</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>302.4710166737249</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>232.6068959622725</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>100.7012858043268</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>338.1753487462616</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>43.10546701331155</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>123.2875604650594</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1618,13 +1618,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>178.8846941420544</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>269.1075062414814</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>243.8604378205287</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>205.2934183826711</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>150.7285371793298</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.77250173713512</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>181.5733848809636</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.20882771298244</v>
       </c>
       <c r="H31" t="n">
-        <v>65.42520756919177</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3012,10 +3012,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>91.8634291666399</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3249,13 +3249,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>208.9394986490611</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3271,13 +3271,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>374.7552726386488</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>106.9706214097034</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3520,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8134504164549</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>110.5566947623674</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>97.67832954876293</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>81.14997012454123</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3988,10 +3988,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>125.5751685665802</v>
+        <v>55.09423975761545</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.2601210751807</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2218.755112140477</v>
+        <v>1954.95323474668</v>
       </c>
       <c r="C2" t="n">
-        <v>1808.630521453747</v>
+        <v>1954.95323474668</v>
       </c>
       <c r="D2" t="n">
-        <v>1404.166591546807</v>
+        <v>1550.48930483974</v>
       </c>
       <c r="E2" t="n">
-        <v>989.8263760637043</v>
+        <v>1136.149089356637</v>
       </c>
       <c r="F2" t="n">
-        <v>568.7959640173918</v>
+        <v>715.1186773103243</v>
       </c>
       <c r="G2" t="n">
-        <v>160.067679910224</v>
+        <v>306.3903932031565</v>
       </c>
       <c r="H2" t="n">
         <v>160.067679910224</v>
@@ -4330,25 +4330,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>327.9013886950514</v>
+        <v>124.2211626307122</v>
       </c>
       <c r="K2" t="n">
-        <v>866.0608898040909</v>
+        <v>662.3806637397518</v>
       </c>
       <c r="L2" t="n">
-        <v>1578.652289616329</v>
+        <v>1374.97206355199</v>
       </c>
       <c r="M2" t="n">
-        <v>2354.970880608083</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="N2" t="n">
-        <v>3108.151897246701</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O2" t="n">
-        <v>3116.082517756141</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
-        <v>3645.239215675292</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
         <v>3645.239215675292</v>
@@ -4357,25 +4357,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U2" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V2" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="W2" t="n">
-        <v>3430.556362687924</v>
+        <v>3166.754485294126</v>
       </c>
       <c r="X2" t="n">
-        <v>3029.912964856876</v>
+        <v>2766.111087463079</v>
       </c>
       <c r="Y2" t="n">
-        <v>2628.976291804966</v>
+        <v>2365.174414411169</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>1832.11952307699</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K3" t="n">
-        <v>1832.11952307699</v>
+        <v>2095.112921779656</v>
       </c>
       <c r="L3" t="n">
-        <v>2493.207694996278</v>
+        <v>2095.112921779656</v>
       </c>
       <c r="M3" t="n">
-        <v>2774.245504192344</v>
+        <v>2938.090002474222</v>
       </c>
       <c r="N3" t="n">
-        <v>2774.245504192344</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="O3" t="n">
-        <v>2774.245504192344</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P3" t="n">
-        <v>3335.951396680874</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q3" t="n">
         <v>3685.795861364857</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1163.049767528434</v>
+        <v>305.1950164329493</v>
       </c>
       <c r="C4" t="n">
-        <v>991.9563950901502</v>
+        <v>134.1016439946658</v>
       </c>
       <c r="D4" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4512,28 +4512,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S4" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="T4" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="U4" t="n">
-        <v>1603.114813848147</v>
+        <v>1235.043948069671</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.114813848147</v>
+        <v>1235.043948069671</v>
       </c>
       <c r="W4" t="n">
-        <v>1603.114813848147</v>
+        <v>955.9742835785455</v>
       </c>
       <c r="X4" t="n">
-        <v>1575.485172533713</v>
+        <v>717.630421438229</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.749473922478</v>
+        <v>492.8947228269936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2132.40334945755</v>
+        <v>1526.785377341439</v>
       </c>
       <c r="C5" t="n">
-        <v>1722.27875877082</v>
+        <v>1116.660786654709</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.814828863881</v>
+        <v>1116.660786654709</v>
       </c>
       <c r="E5" t="n">
-        <v>903.4746133807774</v>
+        <v>702.3205711716059</v>
       </c>
       <c r="F5" t="n">
-        <v>482.444201334465</v>
+        <v>281.2901591252935</v>
       </c>
       <c r="G5" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>327.9013886950514</v>
+        <v>261.9144963961027</v>
       </c>
       <c r="K5" t="n">
-        <v>866.0608898040909</v>
+        <v>800.0739975051422</v>
       </c>
       <c r="L5" t="n">
-        <v>1578.652289616329</v>
+        <v>1512.66539731738</v>
       </c>
       <c r="M5" t="n">
-        <v>2354.970880608083</v>
+        <v>2288.983988309134</v>
       </c>
       <c r="N5" t="n">
-        <v>2680.447352462895</v>
+        <v>3042.165004947752</v>
       </c>
       <c r="O5" t="n">
-        <v>3324.07820888</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P5" t="n">
-        <v>3324.07820888</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q5" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
         <v>3685.795861364857</v>
@@ -4606,13 +4606,13 @@
         <v>2721.410255701808</v>
       </c>
       <c r="W5" t="n">
-        <v>2542.624529122039</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X5" t="n">
-        <v>2542.624529122039</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y5" t="n">
-        <v>2542.624529122039</v>
+        <v>1937.006557005929</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L6" t="n">
-        <v>73.71591722729714</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="M6" t="n">
-        <v>542.5899304202851</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="N6" t="n">
-        <v>1416.248022531903</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="O6" t="n">
-        <v>2120.205113077797</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="P6" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q6" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
         <v>2120.205113077797</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.71591722729714</v>
+        <v>243.5968921052875</v>
       </c>
       <c r="C7" t="n">
-        <v>73.71591722729714</v>
+        <v>243.5968921052875</v>
       </c>
       <c r="D7" t="n">
-        <v>73.71591722729714</v>
+        <v>243.5968921052875</v>
       </c>
       <c r="E7" t="n">
-        <v>73.71591722729714</v>
+        <v>243.5968921052875</v>
       </c>
       <c r="F7" t="n">
-        <v>73.71591722729714</v>
+        <v>78.9657662158788</v>
       </c>
       <c r="G7" t="n">
         <v>73.71591722729714</v>
@@ -4749,28 +4749,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1331.450327403457</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T7" t="n">
-        <v>1091.901588380159</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U7" t="n">
-        <v>809.1034409262836</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V7" t="n">
-        <v>535.2176958658056</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="W7" t="n">
-        <v>256.1480313746799</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="X7" t="n">
-        <v>73.71591722729714</v>
+        <v>656.0322971105672</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.71591722729714</v>
+        <v>431.2965984993319</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2033.187256143102</v>
+        <v>1698.508606779717</v>
       </c>
       <c r="C8" t="n">
-        <v>2033.187256143102</v>
+        <v>1698.508606779717</v>
       </c>
       <c r="D8" t="n">
-        <v>1628.723326236163</v>
+        <v>1294.044676872777</v>
       </c>
       <c r="E8" t="n">
-        <v>1214.38311075306</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="F8" t="n">
-        <v>793.352698706747</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G8" t="n">
-        <v>384.6244145995792</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
         <v>73.71591722729714</v>
@@ -4810,16 +4810,16 @@
         <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>1191.504390522088</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>1967.822981513842</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N8" t="n">
-        <v>2721.00399815246</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O8" t="n">
-        <v>3364.634854569565</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="P8" t="n">
         <v>3364.634854569565</v>
@@ -4831,25 +4831,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>3550.514786158958</v>
+        <v>3643.907712855515</v>
       </c>
       <c r="V8" t="n">
-        <v>3550.514786158958</v>
+        <v>3294.070158191995</v>
       </c>
       <c r="W8" t="n">
-        <v>3244.988506690549</v>
+        <v>2910.309857327164</v>
       </c>
       <c r="X8" t="n">
-        <v>2844.345108859502</v>
+        <v>2509.666459496116</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.408435807592</v>
+        <v>2108.729786444206</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K9" t="n">
-        <v>73.71591722729714</v>
+        <v>305.4371444310359</v>
       </c>
       <c r="L9" t="n">
-        <v>73.71591722729714</v>
+        <v>305.4371444310359</v>
       </c>
       <c r="M9" t="n">
-        <v>542.5899304202851</v>
+        <v>305.4371444310359</v>
       </c>
       <c r="N9" t="n">
-        <v>1416.248022531903</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O9" t="n">
-        <v>2120.205113077797</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.205113077797</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
         <v>2120.205113077797</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1163.049767528434</v>
+        <v>387.9544983112492</v>
       </c>
       <c r="C10" t="n">
-        <v>991.9563950901502</v>
+        <v>387.9544983112492</v>
       </c>
       <c r="D10" t="n">
-        <v>832.4617504130601</v>
+        <v>387.9544983112492</v>
       </c>
       <c r="E10" t="n">
-        <v>671.5509352813797</v>
+        <v>387.9544983112492</v>
       </c>
       <c r="F10" t="n">
-        <v>506.9198093919709</v>
+        <v>223.3233724218405</v>
       </c>
       <c r="G10" t="n">
-        <v>339.6694183175143</v>
+        <v>223.3233724218405</v>
       </c>
       <c r="H10" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
         <v>73.71591722729714</v>
@@ -4992,22 +4992,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1603.114813848147</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>1603.114813848147</v>
+        <v>1128.609614256897</v>
       </c>
       <c r="V10" t="n">
-        <v>1603.114813848147</v>
+        <v>854.7238691964193</v>
       </c>
       <c r="W10" t="n">
-        <v>1603.114813848147</v>
+        <v>575.6542047052936</v>
       </c>
       <c r="X10" t="n">
-        <v>1575.485172533713</v>
+        <v>575.6542047052936</v>
       </c>
       <c r="Y10" t="n">
-        <v>1350.749473922478</v>
+        <v>575.6542047052936</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2132.40334945755</v>
+        <v>2218.755112140477</v>
       </c>
       <c r="C11" t="n">
-        <v>1722.27875877082</v>
+        <v>1808.630521453747</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.814828863881</v>
+        <v>1404.166591546807</v>
       </c>
       <c r="E11" t="n">
-        <v>903.4746133807774</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="F11" t="n">
-        <v>482.444201334465</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G11" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H11" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I11" t="n">
         <v>73.71591722729714</v>
@@ -5044,10 +5044,10 @@
         <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>327.9013886950514</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>662.3476926029365</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="M11" t="n">
         <v>1438.66628359469</v>
@@ -5068,25 +5068,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U11" t="n">
-        <v>3685.795861364857</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V11" t="n">
-        <v>3685.795861364857</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W11" t="n">
-        <v>3344.204600004997</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="X11" t="n">
-        <v>2943.561202173949</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2542.624529122039</v>
+        <v>2320.473582649898</v>
       </c>
     </row>
     <row r="12">
@@ -5123,16 +5123,16 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>73.71591722729714</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L12" t="n">
-        <v>73.71591722729714</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M12" t="n">
-        <v>542.5899304202851</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="N12" t="n">
-        <v>1416.248022531903</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O12" t="n">
         <v>2120.205113077797</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1163.049767528434</v>
+        <v>572.9704958717177</v>
       </c>
       <c r="C13" t="n">
-        <v>991.9563950901502</v>
+        <v>401.8771234334342</v>
       </c>
       <c r="D13" t="n">
-        <v>832.4617504130601</v>
+        <v>401.8771234334342</v>
       </c>
       <c r="E13" t="n">
-        <v>671.5509352813797</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="F13" t="n">
-        <v>506.9198093919709</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="G13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
         <v>73.71591722729714</v>
@@ -5226,25 +5226,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1603.114813848147</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T13" t="n">
-        <v>1603.114813848147</v>
+        <v>1373.182169957036</v>
       </c>
       <c r="U13" t="n">
-        <v>1603.114813848147</v>
+        <v>1090.38402250316</v>
       </c>
       <c r="V13" t="n">
-        <v>1603.114813848147</v>
+        <v>1090.38402250316</v>
       </c>
       <c r="W13" t="n">
-        <v>1603.114813848147</v>
+        <v>811.3143580120343</v>
       </c>
       <c r="X13" t="n">
-        <v>1575.485172533713</v>
+        <v>572.9704958717177</v>
       </c>
       <c r="Y13" t="n">
-        <v>1350.749473922478</v>
+        <v>572.9704958717177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1483.336263548569</v>
+        <v>1748.99186139458</v>
       </c>
       <c r="C14" t="n">
-        <v>1073.211672861839</v>
+        <v>1624.458972035934</v>
       </c>
       <c r="D14" t="n">
-        <v>668.7477429548999</v>
+        <v>1219.995042128995</v>
       </c>
       <c r="E14" t="n">
-        <v>254.4075274717966</v>
+        <v>805.6548266458916</v>
       </c>
       <c r="F14" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="G14" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H14" t="n">
         <v>73.71591722729714</v>
@@ -5284,19 +5284,19 @@
         <v>866.0608898040909</v>
       </c>
       <c r="L14" t="n">
-        <v>1578.652289616329</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="M14" t="n">
-        <v>2354.970880608083</v>
+        <v>1642.379480795845</v>
       </c>
       <c r="N14" t="n">
-        <v>3108.151897246701</v>
+        <v>2395.560497434463</v>
       </c>
       <c r="O14" t="n">
-        <v>3156.639163445705</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P14" t="n">
-        <v>3685.795861364857</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q14" t="n">
         <v>3685.795861364857</v>
@@ -5305,25 +5305,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U14" t="n">
-        <v>3428.735369624367</v>
+        <v>3293.454294418468</v>
       </c>
       <c r="V14" t="n">
-        <v>3078.897814960848</v>
+        <v>2943.616739754949</v>
       </c>
       <c r="W14" t="n">
-        <v>2695.137514096016</v>
+        <v>2559.856438890117</v>
       </c>
       <c r="X14" t="n">
-        <v>2294.494116264969</v>
+        <v>2159.21304105907</v>
       </c>
       <c r="Y14" t="n">
-        <v>1893.557443213059</v>
+        <v>2159.21304105907</v>
       </c>
     </row>
     <row r="15">
@@ -5363,13 +5363,13 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>73.71591722729714</v>
+        <v>403.5699402716127</v>
       </c>
       <c r="M15" t="n">
-        <v>916.6929979218638</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="N15" t="n">
-        <v>1790.351090033482</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O15" t="n">
         <v>2120.205113077797</v>
@@ -5460,25 +5460,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>73.71591722729714</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
         <v>73.71591722729714</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4304.697325272099</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>3732.590116865226</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>4100.47899204261</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>4100.47899204261</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>4100.47899204261</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>865.1056942772943</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>865.1056942772943</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>586.0360297861687</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>586.0360297861687</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2359.298219196301</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.173628509571</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1544.709698602632</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1130.369483119528</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>709.339071073216</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>300.6107869660482</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3954.85977060858</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3571.099469743748</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.456071912701</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2769.519398860791</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4409.819544605471</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4409.819544605471</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4409.819544605471</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>4409.819544605471</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>4409.819544605471</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>4409.819544605471</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -5989,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1578.027001052593</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3886.715034984088</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3715.621662545804</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3715.621662545804</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3715.621662545804</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3550.990536656395</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4390.520398086449</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4390.520398086449</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4390.520398086449</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4111.450733595323</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4111.450733595323</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>3886.715034984088</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
         <v>1648.251106699488</v>
@@ -6226,7 +6226,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4139.837998053967</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>3865.952252993488</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>3586.882588502363</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>3348.538726362046</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>3320.485694304334</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6493,22 +6493,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="30">
@@ -6548,22 +6548,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>275.6758118380055</v>
+        <v>639.9151332627582</v>
       </c>
       <c r="C31" t="n">
-        <v>275.6758118380055</v>
+        <v>639.9151332627582</v>
       </c>
       <c r="D31" t="n">
-        <v>275.6758118380055</v>
+        <v>480.4204885856682</v>
       </c>
       <c r="E31" t="n">
-        <v>275.6758118380055</v>
+        <v>480.4204885856682</v>
       </c>
       <c r="F31" t="n">
-        <v>275.6758118380055</v>
+        <v>315.7893626962595</v>
       </c>
       <c r="G31" t="n">
-        <v>275.6758118380055</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V31" t="n">
-        <v>554.7454763291312</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W31" t="n">
-        <v>275.6758118380055</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X31" t="n">
-        <v>275.6758118380055</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y31" t="n">
-        <v>275.6758118380055</v>
+        <v>827.6148396568026</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D32" t="n">
         <v>1734.602869382415</v>
@@ -6700,7 +6700,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="33">
@@ -6785,13 +6785,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3468.510486237982</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4236.244377387751</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>3953.446229933875</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>3679.560484873397</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>3468.510486237982</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>3468.510486237982</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>3468.510486237982</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6937,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N36" t="n">
-        <v>1789.888428857139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.888428857139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7425299376769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1514.591461574399</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1235.521797083273</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>997.1779349429565</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.4422363317212</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7177,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>541.5939311562606</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>370.5005587179772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>370.5005587179772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7365,19 +7365,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1192.373198301857</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>954.0293361615403</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>729.293637550305</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1740.396755289059</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C41" t="n">
-        <v>1628.723326236163</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D41" t="n">
         <v>1628.723326236163</v>
@@ -7411,25 +7411,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L41" t="n">
-        <v>662.3476926029365</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M41" t="n">
-        <v>1438.66628359469</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N41" t="n">
-        <v>2191.847300233308</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O41" t="n">
-        <v>2835.478156650413</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P41" t="n">
-        <v>3364.634854569565</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q41" t="n">
         <v>3685.795861364857</v>
@@ -7453,10 +7453,10 @@
         <v>2952.198005836506</v>
       </c>
       <c r="X41" t="n">
-        <v>2551.554608005459</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="Y41" t="n">
-        <v>2150.617934953549</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2318.137507400892</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>2184.142436149837</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>2067.24527836923</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>1946.752462361558</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>1837.792582544062</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>1730.802469858401</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>1660.055256894117</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>1639.306665514357</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>1639.306665514357</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>1639.306665514357</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L42" t="n">
-        <v>1639.306665514357</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M42" t="n">
-        <v>2108.180678707345</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="N42" t="n">
-        <v>2981.838770818963</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="O42" t="n">
-        <v>3685.795861364857</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="P42" t="n">
-        <v>3685.795861364857</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q42" t="n">
-        <v>3685.795861364857</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R42" t="n">
-        <v>3685.795861364857</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>3577.805851479166</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>3418.463987666174</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>3221.113176804393</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>3007.401649797427</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>2794.168481533755</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>2617.842499672648</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>2458.440540036478</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2894.496589672936</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>2723.403217234653</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2563.908572557563</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2402.997757425882</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2238.366631536474</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3685.795861364857</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>3685.795861364857</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>3411.910116304379</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>3132.840451813253</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>2894.496589672936</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y43" t="n">
-        <v>2894.496589672936</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1740.396755289059</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C44" t="n">
-        <v>1330.272164602329</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D44" t="n">
-        <v>925.8082346953897</v>
+        <v>1275.645789358909</v>
       </c>
       <c r="E44" t="n">
-        <v>511.4680192122864</v>
+        <v>861.3055738758062</v>
       </c>
       <c r="F44" t="n">
-        <v>511.4680192122864</v>
+        <v>440.2751618294938</v>
       </c>
       <c r="G44" t="n">
         <v>384.6244145995792</v>
@@ -7648,25 +7648,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L44" t="n">
-        <v>786.3073170395352</v>
+        <v>942.9520537086636</v>
       </c>
       <c r="M44" t="n">
-        <v>1562.625908031289</v>
+        <v>1719.270644700418</v>
       </c>
       <c r="N44" t="n">
-        <v>2315.806924669907</v>
+        <v>2472.451661339036</v>
       </c>
       <c r="O44" t="n">
-        <v>2794.921510960849</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P44" t="n">
-        <v>3324.07820888</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q44" t="n">
         <v>3645.239215675292</v>
@@ -7684,16 +7684,16 @@
         <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>3335.958306701338</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>2952.198005836506</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X44" t="n">
-        <v>2551.554608005459</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y44" t="n">
-        <v>2150.617934953549</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>73.71591722729714</v>
       </c>
       <c r="N45" t="n">
-        <v>475.1381459967595</v>
+        <v>824.9826106807429</v>
       </c>
       <c r="O45" t="n">
-        <v>1179.095236542654</v>
+        <v>1528.939701226637</v>
       </c>
       <c r="P45" t="n">
-        <v>1740.801129031184</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="Q45" t="n">
         <v>2090.645593715167</v>
@@ -7836,19 +7836,19 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1372.549034984329</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U46" t="n">
-        <v>1089.750887530453</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V46" t="n">
-        <v>815.8651424699747</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W46" t="n">
-        <v>536.795477978849</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X46" t="n">
-        <v>298.4516158385325</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y46" t="n">
         <v>73.71591722729714</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>124.3389907306969</v>
       </c>
       <c r="K2" t="n">
         <v>632.7318453389136</v>
@@ -7990,16 +7990,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>101.2005034130957</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>341.4408586839378</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>808.4518367176235</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>263.4231662512933</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
@@ -8227,7 +8227,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>421.6764037412781</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
@@ -8236,10 +8236,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1743980747689</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>935.6763147186165</v>
+        <v>660.5901151285162</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2162068689026</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8467,10 +8467,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>352.7230575464033</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>95.12716626047957</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>531.1743980747689</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,13 +8692,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>433.3099474647489</v>
+        <v>673.874684720016</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8771,19 +8771,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747689</v>
+        <v>114.0659762175036</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8932,7 +8932,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8941,13 +8941,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>142.166812190434</v>
+        <v>537.5510475610868</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9011,7 +9011,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M15" t="n">
         <v>909.0562844399999</v>
@@ -9020,7 +9020,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>429.1692081600173</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
@@ -9725,16 +9725,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>336.4139358902908</v>
       </c>
       <c r="N24" t="n">
-        <v>701.4825071992079</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9956,16 +9956,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
@@ -9974,7 +9974,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>389.8785003677836</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10196,25 +10196,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>741.5205988334646</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
@@ -10442,7 +10442,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10664,19 +10664,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N36" t="n">
-        <v>915.4839494260226</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
@@ -10685,10 +10685,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10910,22 +10910,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>690.062948947329</v>
+        <v>757.7150048337307</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>531.174398074769</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024792</v>
+        <v>716.7486960563925</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11311,13 +11311,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>577.1439031923908</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11387,7 +11387,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>458.6703921507827</v>
+        <v>812.0486393063214</v>
       </c>
       <c r="O45" t="n">
         <v>768.8192472281761</v>
@@ -11396,7 +11396,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -22549,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>162.9399262385561</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22609,7 +22609,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>127.2355941660193</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.11782873062413</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -22761,16 +22761,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>284.6307468431773</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>202.9248285422124</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22953,10 +22953,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>160.3805366650162</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23032,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>213.0206197988359</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>77.45168118245817</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>47.36327001706459</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>305.4176820635178</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>41.74734910992146</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>194.0477846197534</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>282.7357843148031</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>237.9354137837949</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>137.0114616263631</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>36.10972815880834</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>19.10615505383106</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24375,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>14.84934998438223</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.7158398879878</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>93.36905945072957</v>
       </c>
       <c r="H31" t="n">
-        <v>82.68617307340614</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25125,7 +25125,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>67.33946919715328</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>25.66401796922128</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25365,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>164.1762662001699</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25569,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>87.46551742975947</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>295.4666500174951</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>298.9586343039741</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>84.42791703917078</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,10 +25839,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>279.0658326995159</v>
+        <v>349.5467615084806</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>8.893130557884234</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>642463.373167785</v>
+        <v>642463.3731677852</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642463.3731677851</v>
+        <v>642463.373167785</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642463.3731677851</v>
+        <v>642463.373167785</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642463.3731677851</v>
+        <v>642463.373167785</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>642463.373167785</v>
+        <v>642463.3731677851</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738604.1022144889</v>
+        <v>738604.102214489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738604.1022144888</v>
+        <v>738604.1022144891</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738604.1022144889</v>
+        <v>738604.1022144891</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738604.102214489</v>
+        <v>738604.1022144891</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738604.102214489</v>
+        <v>738604.1022144889</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738604.102214489</v>
+        <v>738604.1022144891</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>642463.373167785</v>
+        <v>642463.3731677852</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>642463.3731677851</v>
+        <v>642463.3731677852</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>239349.0998076063</v>
       </c>
       <c r="C2" t="n">
+        <v>239349.0998076064</v>
+      </c>
+      <c r="D2" t="n">
         <v>239349.0998076063</v>
-      </c>
-      <c r="D2" t="n">
-        <v>239349.0998076064</v>
       </c>
       <c r="E2" t="n">
         <v>239349.0998076064</v>
       </c>
       <c r="F2" t="n">
-        <v>239349.0998076064</v>
+        <v>239349.0998076063</v>
       </c>
       <c r="G2" t="n">
         <v>275166.2341583392</v>
@@ -26352,10 +26352,10 @@
         <v>275166.2341583392</v>
       </c>
       <c r="O2" t="n">
-        <v>239349.0998076064</v>
+        <v>239349.0998076063</v>
       </c>
       <c r="P2" t="n">
-        <v>239349.0998076064</v>
+        <v>239349.0998076063</v>
       </c>
     </row>
     <row r="3">
@@ -26423,13 +26423,13 @@
         <v>622.7246651156232</v>
       </c>
       <c r="D4" t="n">
-        <v>622.7246651156233</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="E4" t="n">
         <v>622.7246651156232</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7246651156232</v>
+        <v>622.7246651156233</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446466</v>
@@ -26450,7 +26450,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
         <v>738.1279301446466</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-159724.0635622989</v>
+        <v>-160093.1553883729</v>
       </c>
       <c r="C6" t="n">
-        <v>149074.6780497448</v>
+        <v>148705.586223671</v>
       </c>
       <c r="D6" t="n">
-        <v>149074.678049745</v>
+        <v>148705.5862236709</v>
       </c>
       <c r="E6" t="n">
-        <v>182702.278049745</v>
+        <v>182333.1862236709</v>
       </c>
       <c r="F6" t="n">
-        <v>182702.2780497449</v>
+        <v>182333.1862236708</v>
       </c>
       <c r="G6" t="n">
-        <v>136659.4996296886</v>
+        <v>136478.9190370395</v>
       </c>
       <c r="H6" t="n">
-        <v>203562.8959833211</v>
+        <v>203382.315390672</v>
       </c>
       <c r="I6" t="n">
-        <v>203562.8959833212</v>
+        <v>203382.3153906721</v>
       </c>
       <c r="J6" t="n">
-        <v>-37528.69710441545</v>
+        <v>-37709.27769706458</v>
       </c>
       <c r="K6" t="n">
-        <v>203562.8959833212</v>
+        <v>203382.3153906722</v>
       </c>
       <c r="L6" t="n">
-        <v>203562.8959833212</v>
+        <v>203382.3153906721</v>
       </c>
       <c r="M6" t="n">
-        <v>203562.8959833212</v>
+        <v>203382.3153906721</v>
       </c>
       <c r="N6" t="n">
-        <v>203562.8959833212</v>
+        <v>203382.3153906721</v>
       </c>
       <c r="O6" t="n">
-        <v>182702.278049745</v>
+        <v>182333.1862236708</v>
       </c>
       <c r="P6" t="n">
-        <v>182702.2780497449</v>
+        <v>182333.1862236709</v>
       </c>
     </row>
   </sheetData>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>51.01539939738898</v>
       </c>
       <c r="K2" t="n">
         <v>543.5954556656965</v>
@@ -34710,16 +34710,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.010727787312575</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>283.8765749455204</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>755.2584433238735</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>190.0995749179854</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
@@ -34947,7 +34947,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>328.7641129846588</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
@@ -34956,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>882.4829213248665</v>
+        <v>607.3967217347663</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>328.7308088060578</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35187,10 +35187,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>259.0736942655192</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.30138347586418</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>337.8245494019041</v>
+        <v>578.3892866571712</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>56.50169247908619</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35661,13 +35661,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>48.97703656465086</v>
+        <v>444.3612719353036</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>333.185881862945</v>
       </c>
       <c r="M15" t="n">
         <v>851.4920007015825</v>
@@ -35740,7 +35740,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>371.6049244215998</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>278.8496521518734</v>
       </c>
       <c r="N24" t="n">
-        <v>648.289113805458</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>688.3272054397147</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
@@ -37162,7 +37162,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N36" t="n">
-        <v>862.2905560322727</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>594.5775508844841</v>
+        <v>662.2296067708859</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396343</v>
+        <v>621.2632979935477</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38031,13 +38031,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>483.9541275666077</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38107,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>405.4769987570327</v>
+        <v>758.8552459125715</v>
       </c>
       <c r="O45" t="n">
         <v>711.0677682281761</v>
@@ -38116,7 +38116,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>29.85810036629282</v>
